--- a/Method Maker2.xlsx
+++ b/Method Maker2.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\HAMILTON\BAREB\Script\HamiltonMethodMaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE3E8B5-ED81-4954-B94F-9294E4767E34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0542B276-6962-4FB4-877C-64B7D15A60EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{132869CD-930B-4C8C-A6DF-075DCD3A8DCC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{132869CD-930B-4C8C-A6DF-075DCD3A8DCC}"/>
   </bookViews>
   <sheets>
-    <sheet name="___Dropdown values" sheetId="4" r:id="rId1"/>
+    <sheet name="___Dropdown values" sheetId="4" state="hidden" r:id="rId1"/>
     <sheet name="Building Blocks" sheetId="1" r:id="rId2"/>
     <sheet name="Method" sheetId="2" r:id="rId3"/>
     <sheet name="Worklist" sheetId="3" r:id="rId4"/>
+    <sheet name="PrepList" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="115">
   <si>
     <t>Liquid Transfer</t>
   </si>
@@ -294,13 +295,100 @@
   </si>
   <si>
     <t>Digestion</t>
+  </si>
+  <si>
+    <t>Sample: 200uL Biorad 96 Well PCR Plate</t>
+  </si>
+  <si>
+    <t>200mL Reagent Trough</t>
+  </si>
+  <si>
+    <t>Reagent</t>
+  </si>
+  <si>
+    <t>Reagent Lot</t>
+  </si>
+  <si>
+    <t>Reagent Volume</t>
+  </si>
+  <si>
+    <t>Diluent Lot</t>
+  </si>
+  <si>
+    <t>Diluent Volume</t>
+  </si>
+  <si>
+    <t>15mL Centrifuge Tube</t>
+  </si>
+  <si>
+    <t>60mL Reagent Reservior</t>
+  </si>
+  <si>
+    <t>Hamilton 1.5mL FlipTube</t>
+  </si>
+  <si>
+    <t>A1: 35.0uL</t>
+  </si>
+  <si>
+    <t>A2: 35.0uL</t>
+  </si>
+  <si>
+    <t>A3: 35.0uL</t>
+  </si>
+  <si>
+    <t>A4: 35.0uL</t>
+  </si>
+  <si>
+    <t>B1: 35.0uL</t>
+  </si>
+  <si>
+    <t>B2: 35.0uL</t>
+  </si>
+  <si>
+    <t>B3: 35.0uL</t>
+  </si>
+  <si>
+    <t>B4: 35.0uL</t>
+  </si>
+  <si>
+    <t>A5: 35.0uL</t>
+  </si>
+  <si>
+    <t>A6: 35.0uL</t>
+  </si>
+  <si>
+    <t>A7: 35.0uL</t>
+  </si>
+  <si>
+    <t>A8: 35.0uL</t>
+  </si>
+  <si>
+    <t>Minimum Volume: 18120.0uL</t>
+  </si>
+  <si>
+    <t>Minimum Volume: 1532.0uL</t>
+  </si>
+  <si>
+    <t>Minimum Volume: 2548.0uL</t>
+  </si>
+  <si>
+    <t>Minimum Volume: 189.96uL</t>
+  </si>
+  <si>
+    <t>Minimum Volume: 210.0uL</t>
+  </si>
+  <si>
+    <t>Minimum Volume: 188.4uL</t>
+  </si>
+  <si>
+    <t>Minimum Volume: 170.4uL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,6 +399,27 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -355,7 +464,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -647,11 +756,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -777,6 +972,24 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -903,25 +1116,37 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -930,35 +1155,1531 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="186">
+  <dxfs count="395">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2605,15 +4326,15 @@
       <c r="D3" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -2817,31 +4538,31 @@
   <sheetData>
     <row r="2" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="62"/>
+      <c r="D3" s="68"/>
       <c r="E3" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="74" t="s">
+      <c r="G3" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="75"/>
+      <c r="H3" s="81"/>
       <c r="I3" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="78" t="s">
+      <c r="K3" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="79"/>
+      <c r="L3" s="85"/>
       <c r="M3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="72" t="s">
+      <c r="O3" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="P3" s="73"/>
+      <c r="P3" s="79"/>
       <c r="Q3" s="28" t="s">
         <v>16</v>
       </c>
@@ -2851,74 +4572,74 @@
         <v>1</v>
       </c>
       <c r="D4" s="34"/>
-      <c r="E4" s="66"/>
+      <c r="E4" s="72"/>
       <c r="G4" s="7" t="s">
         <v>39</v>
       </c>
       <c r="H4" s="15"/>
-      <c r="I4" s="89"/>
+      <c r="I4" s="95"/>
       <c r="K4" s="5" t="s">
         <v>39</v>
       </c>
       <c r="L4" s="20"/>
-      <c r="M4" s="92"/>
+      <c r="M4" s="98"/>
       <c r="O4" s="11" t="s">
         <v>13</v>
       </c>
       <c r="P4" s="22"/>
-      <c r="Q4" s="58"/>
+      <c r="Q4" s="64"/>
     </row>
     <row r="5" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="48" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="33"/>
-      <c r="E5" s="67"/>
+      <c r="E5" s="73"/>
       <c r="G5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="H5" s="15"/>
-      <c r="I5" s="90"/>
+      <c r="I5" s="96"/>
       <c r="K5" s="5" t="s">
         <v>38</v>
       </c>
       <c r="L5" s="20"/>
-      <c r="M5" s="93"/>
+      <c r="M5" s="99"/>
       <c r="O5" s="11" t="s">
         <v>9</v>
       </c>
       <c r="P5" s="22"/>
-      <c r="Q5" s="59"/>
+      <c r="Q5" s="65"/>
     </row>
     <row r="6" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G6" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="15"/>
-      <c r="I6" s="90"/>
+      <c r="I6" s="96"/>
       <c r="K6" s="6" t="s">
         <v>26</v>
       </c>
       <c r="L6" s="21"/>
-      <c r="M6" s="94"/>
+      <c r="M6" s="100"/>
       <c r="O6" s="12" t="s">
         <v>21</v>
       </c>
       <c r="P6" s="23"/>
-      <c r="Q6" s="60"/>
+      <c r="Q6" s="66"/>
     </row>
     <row r="7" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H7" s="15"/>
-      <c r="I7" s="90"/>
+      <c r="I7" s="96"/>
     </row>
     <row r="8" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="77"/>
+      <c r="D8" s="83"/>
       <c r="E8" s="25" t="s">
         <v>16</v>
       </c>
@@ -2926,18 +4647,18 @@
         <v>11</v>
       </c>
       <c r="H8" s="16"/>
-      <c r="I8" s="91"/>
+      <c r="I8" s="97"/>
     </row>
     <row r="9" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="18"/>
-      <c r="E9" s="80"/>
-      <c r="K9" s="61" t="s">
+      <c r="E9" s="86"/>
+      <c r="K9" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="62"/>
+      <c r="L9" s="68"/>
       <c r="M9" s="44" t="s">
         <v>16</v>
       </c>
@@ -2947,11 +4668,11 @@
         <v>36</v>
       </c>
       <c r="D10" s="18"/>
-      <c r="E10" s="81"/>
-      <c r="G10" s="95" t="s">
+      <c r="E10" s="87"/>
+      <c r="G10" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="96"/>
+      <c r="H10" s="102"/>
       <c r="I10" s="29" t="s">
         <v>16</v>
       </c>
@@ -2959,42 +4680,42 @@
         <v>52</v>
       </c>
       <c r="L10" s="32"/>
-      <c r="M10" s="83"/>
+      <c r="M10" s="89"/>
     </row>
     <row r="11" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="19"/>
-      <c r="E11" s="82"/>
+      <c r="E11" s="88"/>
       <c r="G11" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H11" s="13"/>
-      <c r="I11" s="86"/>
+      <c r="I11" s="92"/>
       <c r="K11" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="111"/>
-      <c r="M11" s="84"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="90"/>
     </row>
     <row r="12" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G12" s="3" t="s">
         <v>57</v>
       </c>
       <c r="H12" s="13"/>
-      <c r="I12" s="87"/>
+      <c r="I12" s="93"/>
       <c r="K12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L12" s="110"/>
-      <c r="M12" s="85"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="91"/>
     </row>
     <row r="13" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="62"/>
+      <c r="D13" s="68"/>
       <c r="E13" s="43" t="s">
         <v>16</v>
       </c>
@@ -3002,36 +4723,36 @@
         <v>55</v>
       </c>
       <c r="H13" s="13"/>
-      <c r="I13" s="87"/>
+      <c r="I13" s="93"/>
     </row>
     <row r="14" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C14" s="68"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="66"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="72"/>
       <c r="G14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H14" s="13"/>
-      <c r="I14" s="87"/>
+      <c r="I14" s="93"/>
     </row>
     <row r="15" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="70"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="67"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="73"/>
       <c r="G15" s="4" t="s">
         <v>42</v>
       </c>
       <c r="H15" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="88"/>
+      <c r="I15" s="94"/>
     </row>
     <row r="17" spans="7:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G18" s="56" t="s">
+      <c r="G18" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="H18" s="57"/>
+      <c r="H18" s="63"/>
       <c r="I18" s="36" t="s">
         <v>16</v>
       </c>
@@ -3041,21 +4762,21 @@
         <v>75</v>
       </c>
       <c r="H19" s="50"/>
-      <c r="I19" s="63"/>
+      <c r="I19" s="69"/>
     </row>
     <row r="20" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G20" s="37" t="s">
         <v>73</v>
       </c>
       <c r="H20" s="38"/>
-      <c r="I20" s="64"/>
+      <c r="I20" s="70"/>
     </row>
     <row r="21" spans="7:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G21" s="39" t="s">
         <v>74</v>
       </c>
       <c r="H21" s="40"/>
-      <c r="I21" s="65"/>
+      <c r="I21" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -3149,8 +4870,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="D1:O103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3171,10 +4892,10 @@
   <sheetData>
     <row r="1" spans="4:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="62"/>
+      <c r="E2" s="68"/>
       <c r="F2" s="30" t="s">
         <v>16</v>
       </c>
@@ -3186,7 +4907,7 @@
       <c r="E3" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="66" t="s">
+      <c r="F3" s="72" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3197,20 +4918,20 @@
       <c r="E4" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="67"/>
+      <c r="F4" s="73"/>
     </row>
     <row r="6" spans="4:15" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="103" t="s">
+      <c r="D6" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="103"/>
+      <c r="E6" s="107"/>
     </row>
     <row r="7" spans="4:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D8" s="101" t="s">
+      <c r="D8" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="102"/>
+      <c r="E8" s="104"/>
       <c r="F8" s="41" t="s">
         <v>16</v>
       </c>
@@ -3222,7 +4943,7 @@
       <c r="E9" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="99"/>
+      <c r="F9" s="105"/>
     </row>
     <row r="10" spans="4:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="1" t="s">
@@ -3231,7 +4952,7 @@
       <c r="E10" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="100"/>
+      <c r="F10" s="106"/>
     </row>
     <row r="11" spans="4:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I11" s="24"/>
@@ -3240,10 +4961,10 @@
       <c r="O11"/>
     </row>
     <row r="12" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D12" s="97" t="s">
+      <c r="D12" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="98"/>
+      <c r="E12" s="109"/>
       <c r="F12" s="45" t="s">
         <v>16</v>
       </c>
@@ -3257,7 +4978,7 @@
       <c r="E13" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="86"/>
+      <c r="F13" s="92"/>
       <c r="N13"/>
       <c r="O13"/>
     </row>
@@ -3268,7 +4989,7 @@
       <c r="E14" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="87"/>
+      <c r="F14" s="93"/>
       <c r="K14" s="24"/>
       <c r="L14" s="24"/>
       <c r="N14"/>
@@ -3281,7 +5002,7 @@
       <c r="E15" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="87"/>
+      <c r="F15" s="93"/>
       <c r="K15" s="24"/>
       <c r="L15" s="24"/>
       <c r="N15"/>
@@ -3294,7 +5015,7 @@
       <c r="E16" s="13">
         <v>86</v>
       </c>
-      <c r="F16" s="87"/>
+      <c r="F16" s="93"/>
       <c r="K16" s="24"/>
       <c r="L16" s="24"/>
       <c r="N16"/>
@@ -3307,7 +5028,7 @@
       <c r="E17" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="88"/>
+      <c r="F17" s="94"/>
       <c r="K17" s="24"/>
       <c r="L17" s="24"/>
       <c r="N17"/>
@@ -3320,10 +5041,10 @@
       <c r="O18"/>
     </row>
     <row r="19" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D19" s="108" t="s">
+      <c r="D19" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="109"/>
+      <c r="E19" s="113"/>
       <c r="F19" s="26" t="s">
         <v>16</v>
       </c>
@@ -3339,7 +5060,7 @@
       <c r="E20" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="89"/>
+      <c r="F20" s="95"/>
       <c r="K20" s="24"/>
       <c r="L20" s="24"/>
       <c r="N20"/>
@@ -3352,7 +5073,7 @@
       <c r="E21" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="90"/>
+      <c r="F21" s="96"/>
       <c r="K21" s="24"/>
       <c r="L21" s="24"/>
       <c r="N21"/>
@@ -3366,7 +5087,7 @@
         <f>Worklist!E1</f>
         <v>_Conc</v>
       </c>
-      <c r="F22" s="90"/>
+      <c r="F22" s="96"/>
       <c r="K22" s="24"/>
       <c r="L22" s="24"/>
       <c r="N22"/>
@@ -3379,7 +5100,7 @@
       <c r="E23" s="15">
         <v>10</v>
       </c>
-      <c r="F23" s="90"/>
+      <c r="F23" s="96"/>
       <c r="K23" s="24"/>
       <c r="L23" s="24"/>
       <c r="N23"/>
@@ -3392,7 +5113,7 @@
       <c r="E24" s="16">
         <v>10</v>
       </c>
-      <c r="F24" s="91"/>
+      <c r="F24" s="97"/>
       <c r="K24" s="24"/>
       <c r="L24" s="24"/>
       <c r="N24"/>
@@ -3405,10 +5126,10 @@
       <c r="O25"/>
     </row>
     <row r="26" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D26" s="95" t="s">
+      <c r="D26" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="E26" s="96"/>
+      <c r="E26" s="102"/>
       <c r="F26" s="51" t="s">
         <v>16</v>
       </c>
@@ -3424,7 +5145,7 @@
       <c r="E27" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="86"/>
+      <c r="F27" s="92"/>
       <c r="K27" s="24"/>
       <c r="L27" s="24"/>
       <c r="N27"/>
@@ -3437,7 +5158,7 @@
       <c r="E28" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F28" s="87"/>
+      <c r="F28" s="93"/>
       <c r="K28" s="24"/>
       <c r="L28" s="24"/>
       <c r="N28"/>
@@ -3450,7 +5171,7 @@
       <c r="E29" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F29" s="87"/>
+      <c r="F29" s="93"/>
       <c r="K29" s="24"/>
       <c r="L29" s="24"/>
       <c r="N29"/>
@@ -3463,7 +5184,7 @@
       <c r="E30" s="13">
         <v>4</v>
       </c>
-      <c r="F30" s="87"/>
+      <c r="F30" s="93"/>
     </row>
     <row r="31" spans="4:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D31" s="4" t="s">
@@ -3472,14 +5193,14 @@
       <c r="E31" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="88"/>
+      <c r="F31" s="94"/>
     </row>
     <row r="32" spans="4:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D33" s="95" t="s">
+      <c r="D33" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="E33" s="96"/>
+      <c r="E33" s="102"/>
       <c r="F33" s="51" t="s">
         <v>16</v>
       </c>
@@ -3491,7 +5212,7 @@
       <c r="E34" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="F34" s="86"/>
+      <c r="F34" s="92"/>
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D35" s="3" t="s">
@@ -3500,7 +5221,7 @@
       <c r="E35" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F35" s="87"/>
+      <c r="F35" s="93"/>
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D36" s="3" t="s">
@@ -3509,7 +5230,7 @@
       <c r="E36" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F36" s="87"/>
+      <c r="F36" s="93"/>
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D37" s="3" t="s">
@@ -3518,7 +5239,7 @@
       <c r="E37" s="13">
         <v>3.33</v>
       </c>
-      <c r="F37" s="87"/>
+      <c r="F37" s="93"/>
     </row>
     <row r="38" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D38" s="4" t="s">
@@ -3527,14 +5248,14 @@
       <c r="E38" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F38" s="88"/>
+      <c r="F38" s="94"/>
     </row>
     <row r="39" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D40" s="72" t="s">
+      <c r="D40" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="73"/>
+      <c r="E40" s="79"/>
       <c r="F40" s="53" t="s">
         <v>16</v>
       </c>
@@ -3546,7 +5267,7 @@
       <c r="E41" s="22">
         <v>30</v>
       </c>
-      <c r="F41" s="58"/>
+      <c r="F41" s="64"/>
     </row>
     <row r="42" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D42" s="11" t="s">
@@ -3555,7 +5276,7 @@
       <c r="E42" s="22">
         <v>30</v>
       </c>
-      <c r="F42" s="59"/>
+      <c r="F42" s="65"/>
     </row>
     <row r="43" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D43" s="12" t="s">
@@ -3564,14 +5285,14 @@
       <c r="E43" s="23">
         <v>0</v>
       </c>
-      <c r="F43" s="60"/>
+      <c r="F43" s="66"/>
     </row>
     <row r="44" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D45" s="95" t="s">
+      <c r="D45" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="E45" s="96"/>
+      <c r="E45" s="102"/>
       <c r="F45" s="51" t="s">
         <v>16</v>
       </c>
@@ -3583,7 +5304,7 @@
       <c r="E46" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="F46" s="86"/>
+      <c r="F46" s="92"/>
     </row>
     <row r="47" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D47" s="3" t="s">
@@ -3592,7 +5313,7 @@
       <c r="E47" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F47" s="87"/>
+      <c r="F47" s="93"/>
     </row>
     <row r="48" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D48" s="3" t="s">
@@ -3601,7 +5322,7 @@
       <c r="E48" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F48" s="87"/>
+      <c r="F48" s="93"/>
     </row>
     <row r="49" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D49" s="3" t="s">
@@ -3610,7 +5331,7 @@
       <c r="E49" s="13">
         <v>5</v>
       </c>
-      <c r="F49" s="87"/>
+      <c r="F49" s="93"/>
     </row>
     <row r="50" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D50" s="4" t="s">
@@ -3619,14 +5340,14 @@
       <c r="E50" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F50" s="88"/>
+      <c r="F50" s="94"/>
     </row>
     <row r="51" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D52" s="72" t="s">
+      <c r="D52" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="73"/>
+      <c r="E52" s="79"/>
       <c r="F52" s="53" t="s">
         <v>16</v>
       </c>
@@ -3638,7 +5359,7 @@
       <c r="E53" s="22">
         <v>25</v>
       </c>
-      <c r="F53" s="58"/>
+      <c r="F53" s="64"/>
     </row>
     <row r="54" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D54" s="11" t="s">
@@ -3647,7 +5368,7 @@
       <c r="E54" s="22">
         <v>30</v>
       </c>
-      <c r="F54" s="59"/>
+      <c r="F54" s="65"/>
     </row>
     <row r="55" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D55" s="12" t="s">
@@ -3656,14 +5377,14 @@
       <c r="E55" s="23">
         <v>0</v>
       </c>
-      <c r="F55" s="60"/>
+      <c r="F55" s="66"/>
     </row>
     <row r="56" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D57" s="101" t="s">
+      <c r="D57" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="E57" s="102"/>
+      <c r="E57" s="104"/>
       <c r="F57" s="52" t="s">
         <v>16</v>
       </c>
@@ -3675,7 +5396,7 @@
       <c r="E58" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="F58" s="99"/>
+      <c r="F58" s="105"/>
     </row>
     <row r="59" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D59" s="1" t="s">
@@ -3684,14 +5405,14 @@
       <c r="E59" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F59" s="100"/>
+      <c r="F59" s="106"/>
     </row>
     <row r="60" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="61" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D61" s="106" t="s">
+      <c r="D61" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="E61" s="107"/>
+      <c r="E61" s="111"/>
       <c r="F61" s="54" t="s">
         <v>16</v>
       </c>
@@ -3704,7 +5425,7 @@
         <f>E9</f>
         <v>Denaturation</v>
       </c>
-      <c r="F62" s="92"/>
+      <c r="F62" s="98"/>
     </row>
     <row r="63" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D63" s="5" t="s">
@@ -3713,7 +5434,7 @@
       <c r="E63" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="F63" s="93"/>
+      <c r="F63" s="99"/>
     </row>
     <row r="64" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D64" s="6" t="s">
@@ -3722,14 +5443,14 @@
       <c r="E64" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F64" s="94"/>
+      <c r="F64" s="100"/>
     </row>
     <row r="65" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="66" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D66" s="101" t="s">
+      <c r="D66" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="E66" s="102"/>
+      <c r="E66" s="104"/>
       <c r="F66" s="44" t="s">
         <v>16</v>
       </c>
@@ -3741,7 +5462,7 @@
       <c r="E67" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="F67" s="83"/>
+      <c r="F67" s="89"/>
     </row>
     <row r="68" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D68" s="31" t="s">
@@ -3750,27 +5471,27 @@
       <c r="E68" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="F68" s="84"/>
+      <c r="F68" s="90"/>
     </row>
     <row r="69" spans="4:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D69" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E69" s="110" t="s">
+      <c r="E69" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="F69" s="85"/>
+      <c r="F69" s="91"/>
     </row>
     <row r="70" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D70" s="24"/>
-      <c r="E70" s="112"/>
-      <c r="F70" s="113"/>
+      <c r="E70" s="57"/>
+      <c r="F70" s="58"/>
     </row>
     <row r="71" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D71" s="101" t="s">
+      <c r="D71" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="E71" s="102"/>
+      <c r="E71" s="104"/>
       <c r="F71" s="52" t="s">
         <v>16</v>
       </c>
@@ -3782,7 +5503,7 @@
       <c r="E72" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="F72" s="99"/>
+      <c r="F72" s="105"/>
     </row>
     <row r="73" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D73" s="1" t="s">
@@ -3791,14 +5512,14 @@
       <c r="E73" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F73" s="100"/>
+      <c r="F73" s="106"/>
     </row>
     <row r="74" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="75" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D75" s="108" t="s">
+      <c r="D75" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="E75" s="109"/>
+      <c r="E75" s="113"/>
       <c r="F75" s="26" t="s">
         <v>16</v>
       </c>
@@ -3810,7 +5531,7 @@
       <c r="E76" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="F76" s="89"/>
+      <c r="F76" s="95"/>
     </row>
     <row r="77" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D77" s="7" t="s">
@@ -3819,7 +5540,7 @@
       <c r="E77" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="F77" s="90"/>
+      <c r="F77" s="96"/>
     </row>
     <row r="78" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D78" s="7" t="s">
@@ -3829,7 +5550,7 @@
         <f>Worklist!F1</f>
         <v>Desalted Concentration</v>
       </c>
-      <c r="F78" s="90"/>
+      <c r="F78" s="96"/>
     </row>
     <row r="79" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D79" s="7" t="s">
@@ -3838,7 +5559,7 @@
       <c r="E79" s="15">
         <v>10</v>
       </c>
-      <c r="F79" s="90"/>
+      <c r="F79" s="96"/>
     </row>
     <row r="80" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D80" s="8" t="s">
@@ -3847,14 +5568,14 @@
       <c r="E80" s="16">
         <v>10</v>
       </c>
-      <c r="F80" s="91"/>
+      <c r="F80" s="97"/>
     </row>
     <row r="81" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="82" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D82" s="97" t="s">
+      <c r="D82" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="E82" s="98"/>
+      <c r="E82" s="109"/>
       <c r="F82" s="51" t="s">
         <v>16</v>
       </c>
@@ -3866,7 +5587,7 @@
       <c r="E83" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="F83" s="86"/>
+      <c r="F83" s="92"/>
     </row>
     <row r="84" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D84" s="3" t="s">
@@ -3875,7 +5596,7 @@
       <c r="E84" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F84" s="87"/>
+      <c r="F84" s="93"/>
     </row>
     <row r="85" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D85" s="3" t="s">
@@ -3884,7 +5605,7 @@
       <c r="E85" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F85" s="87"/>
+      <c r="F85" s="93"/>
     </row>
     <row r="86" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D86" s="3" t="s">
@@ -3893,7 +5614,7 @@
       <c r="E86" s="13">
         <v>3.2</v>
       </c>
-      <c r="F86" s="87"/>
+      <c r="F86" s="93"/>
     </row>
     <row r="87" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D87" s="4" t="s">
@@ -3902,14 +5623,14 @@
       <c r="E87" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F87" s="88"/>
+      <c r="F87" s="94"/>
     </row>
     <row r="88" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="89" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D89" s="104" t="s">
+      <c r="D89" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="E89" s="105"/>
+      <c r="E89" s="115"/>
       <c r="F89" s="53" t="s">
         <v>16</v>
       </c>
@@ -3921,7 +5642,7 @@
       <c r="E90" s="22">
         <v>37</v>
       </c>
-      <c r="F90" s="58"/>
+      <c r="F90" s="64"/>
     </row>
     <row r="91" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D91" s="11" t="s">
@@ -3930,7 +5651,7 @@
       <c r="E91" s="22">
         <v>60</v>
       </c>
-      <c r="F91" s="59"/>
+      <c r="F91" s="65"/>
     </row>
     <row r="92" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D92" s="12" t="s">
@@ -3939,14 +5660,14 @@
       <c r="E92" s="23">
         <v>0</v>
       </c>
-      <c r="F92" s="60"/>
+      <c r="F92" s="66"/>
     </row>
     <row r="93" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="94" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D94" s="97" t="s">
+      <c r="D94" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="E94" s="98"/>
+      <c r="E94" s="109"/>
       <c r="F94" s="51" t="s">
         <v>16</v>
       </c>
@@ -3958,7 +5679,7 @@
       <c r="E95" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F95" s="86"/>
+      <c r="F95" s="92"/>
     </row>
     <row r="96" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D96" s="3" t="s">
@@ -3967,7 +5688,7 @@
       <c r="E96" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F96" s="87"/>
+      <c r="F96" s="93"/>
     </row>
     <row r="97" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D97" s="3" t="s">
@@ -3976,7 +5697,7 @@
       <c r="E97" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F97" s="87"/>
+      <c r="F97" s="93"/>
     </row>
     <row r="98" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D98" s="3" t="s">
@@ -3985,7 +5706,7 @@
       <c r="E98" s="13">
         <v>1.7</v>
       </c>
-      <c r="F98" s="87"/>
+      <c r="F98" s="93"/>
     </row>
     <row r="99" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D99" s="4" t="s">
@@ -3994,35 +5715,30 @@
       <c r="E99" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F99" s="88"/>
+      <c r="F99" s="94"/>
     </row>
     <row r="100" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="101" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D101" s="101" t="s">
+      <c r="D101" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="E101" s="102"/>
+      <c r="E101" s="104"/>
       <c r="F101" s="52" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="102" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D102" s="68"/>
-      <c r="E102" s="69"/>
-      <c r="F102" s="66"/>
+      <c r="D102" s="74"/>
+      <c r="E102" s="75"/>
+      <c r="F102" s="72"/>
     </row>
     <row r="103" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D103" s="70"/>
-      <c r="E103" s="71"/>
-      <c r="F103" s="67"/>
+      <c r="D103" s="76"/>
+      <c r="E103" s="77"/>
+      <c r="F103" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="F83:F87"/>
-    <mergeCell ref="D89:E89"/>
     <mergeCell ref="F90:F92"/>
     <mergeCell ref="D94:E94"/>
     <mergeCell ref="F62:F64"/>
@@ -4030,6 +5746,11 @@
     <mergeCell ref="F67:F69"/>
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="F76:F80"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F83:F87"/>
+    <mergeCell ref="D89:E89"/>
     <mergeCell ref="F27:F31"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D26:E26"/>
@@ -4040,11 +5761,6 @@
     <mergeCell ref="F41:F43"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="F46:F50"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="D61:E61"/>
     <mergeCell ref="F95:F99"/>
     <mergeCell ref="D101:E101"/>
     <mergeCell ref="D102:E103"/>
@@ -4056,6 +5772,11 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F13:F17"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="D61:E61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4131,10 +5852,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD529AF6-49B7-49B9-A330-C878FB7908FD}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A10" sqref="A10:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4176,10 +5897,11 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f t="shared" ref="A2:A5" si="0">ROW(A1)</f>
+        <f t="shared" ref="A2:A13" si="0">ROW(A1)</f>
         <v>1</v>
       </c>
       <c r="B2">
+        <f>A2</f>
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -4189,7 +5911,8 @@
         <v>10</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <f>IF(D2&lt;10,10,D2)</f>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -4201,7 +5924,8 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <f>A3</f>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -4210,7 +5934,8 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <f>IF(D3&lt;10,10,D3)</f>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4222,7 +5947,8 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <f>A4</f>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -4231,7 +5957,8 @@
         <v>10</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <f>IF(D4&lt;10,10,D4)</f>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -4243,7 +5970,8 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <f>A5</f>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -4252,939 +5980,359 @@
         <v>10</v>
       </c>
       <c r="E5">
-        <v>20</v>
+        <f>IF(D5&lt;10,10,D5)</f>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f>A6</f>
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <f>IF(D6&lt;10,10,D6)</f>
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f>A7</f>
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <f>IF(D7&lt;10,10,D7)</f>
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f>A8</f>
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <f>IF(D8&lt;10,10,D8)</f>
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f>A9</f>
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <f>IF(D9&lt;10,10,D9)</f>
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f>A10</f>
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <f>IF(D10&lt;10,10,D10)</f>
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f>A11</f>
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <f>IF(D11&lt;10,10,D11)</f>
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f>A12</f>
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <f>IF(D12&lt;10,10,D12)</f>
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f>A13</f>
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <f>IF(D13&lt;10,10,D13)</f>
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="185" priority="270">
+    <cfRule type="expression" dxfId="394" priority="479">
       <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:F2">
-    <cfRule type="expression" dxfId="184" priority="267">
+    <cfRule type="expression" dxfId="393" priority="476">
+      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="expression" dxfId="302" priority="215">
+      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="expression" dxfId="301" priority="214">
+      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="expression" dxfId="300" priority="213">
+      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="expression" dxfId="299" priority="212">
+      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="expression" dxfId="298" priority="211">
+      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="expression" dxfId="297" priority="210">
+      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="expression" dxfId="24" priority="25">
+      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="expression" dxfId="23" priority="24">
+      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="expression" dxfId="22" priority="23">
       <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="183" priority="256">
+    <cfRule type="expression" dxfId="21" priority="22">
       <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:F6">
-    <cfRule type="expression" dxfId="182" priority="255">
+    <cfRule type="expression" dxfId="20" priority="21">
       <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="181" priority="254">
+    <cfRule type="expression" dxfId="19" priority="20">
+      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="expression" dxfId="18" priority="19">
       <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="180" priority="253">
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="expression" dxfId="16" priority="17">
       <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="179" priority="252">
+    <cfRule type="expression" dxfId="15" priority="16">
       <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7:F7">
-    <cfRule type="expression" dxfId="178" priority="251">
+  <conditionalFormatting sqref="F9">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:F8">
-    <cfRule type="expression" dxfId="177" priority="250">
+  <conditionalFormatting sqref="E7">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E9:F9">
-    <cfRule type="expression" dxfId="176" priority="249">
+  <conditionalFormatting sqref="E8">
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="175" priority="248">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:F10">
-    <cfRule type="expression" dxfId="174" priority="247">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="173" priority="246">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11:F11">
-    <cfRule type="expression" dxfId="172" priority="245">
+  <conditionalFormatting sqref="F11">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="171" priority="244">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:F12">
-    <cfRule type="expression" dxfId="170" priority="243">
+  <conditionalFormatting sqref="F12">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="169" priority="242">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:F13">
-    <cfRule type="expression" dxfId="168" priority="241">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="167" priority="240">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14:F14">
-    <cfRule type="expression" dxfId="166" priority="239">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="165" priority="238">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="164" priority="237">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="163" priority="236">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15:F15">
-    <cfRule type="expression" dxfId="162" priority="235">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16:F16">
-    <cfRule type="expression" dxfId="161" priority="234">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17:F17">
-    <cfRule type="expression" dxfId="160" priority="233">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="159" priority="232">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18:F18">
-    <cfRule type="expression" dxfId="158" priority="231">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="157" priority="230">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19:F19">
-    <cfRule type="expression" dxfId="156" priority="229">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="155" priority="228">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20:F20">
-    <cfRule type="expression" dxfId="154" priority="227">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="153" priority="226">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21:F21">
-    <cfRule type="expression" dxfId="152" priority="225">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="151" priority="224">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22:F22">
-    <cfRule type="expression" dxfId="150" priority="223">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="expression" dxfId="149" priority="222">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="expression" dxfId="148" priority="221">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
-    <cfRule type="expression" dxfId="147" priority="220">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23:F23">
-    <cfRule type="expression" dxfId="146" priority="219">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24:F24">
-    <cfRule type="expression" dxfId="145" priority="218">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25:F25">
-    <cfRule type="expression" dxfId="144" priority="217">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="143" priority="216">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26:F26">
-    <cfRule type="expression" dxfId="142" priority="215">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="expression" dxfId="141" priority="214">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27:F27">
-    <cfRule type="expression" dxfId="140" priority="213">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="expression" dxfId="139" priority="212">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28:F28">
-    <cfRule type="expression" dxfId="138" priority="211">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="expression" dxfId="137" priority="210">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29:F29">
-    <cfRule type="expression" dxfId="136" priority="209">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="135" priority="208">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30:F30">
-    <cfRule type="expression" dxfId="134" priority="207">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="133" priority="206">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="132" priority="205">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="131" priority="204">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31:F31">
-    <cfRule type="expression" dxfId="130" priority="203">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32:F32">
-    <cfRule type="expression" dxfId="129" priority="202">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33:F33">
-    <cfRule type="expression" dxfId="128" priority="201">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="expression" dxfId="127" priority="200">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34:F34">
-    <cfRule type="expression" dxfId="126" priority="199">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="expression" dxfId="125" priority="198">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35:F35">
-    <cfRule type="expression" dxfId="124" priority="197">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="expression" dxfId="123" priority="196">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36:F36">
-    <cfRule type="expression" dxfId="122" priority="195">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="expression" dxfId="121" priority="194">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37:F37">
-    <cfRule type="expression" dxfId="120" priority="193">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="expression" dxfId="119" priority="192">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38:F38">
-    <cfRule type="expression" dxfId="118" priority="191">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D71">
-    <cfRule type="expression" dxfId="117" priority="126">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D72">
-    <cfRule type="expression" dxfId="116" priority="125">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D73">
-    <cfRule type="expression" dxfId="115" priority="124">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71:F71">
-    <cfRule type="expression" dxfId="114" priority="123">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72:F72">
-    <cfRule type="expression" dxfId="113" priority="122">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73:F73">
-    <cfRule type="expression" dxfId="112" priority="121">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D74">
-    <cfRule type="expression" dxfId="111" priority="120">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74:F74">
-    <cfRule type="expression" dxfId="110" priority="119">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D75">
-    <cfRule type="expression" dxfId="109" priority="118">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75:F75">
-    <cfRule type="expression" dxfId="108" priority="117">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D76">
-    <cfRule type="expression" dxfId="107" priority="116">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76:F76">
-    <cfRule type="expression" dxfId="106" priority="115">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D77">
-    <cfRule type="expression" dxfId="105" priority="114">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77:F77">
-    <cfRule type="expression" dxfId="104" priority="113">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D78">
-    <cfRule type="expression" dxfId="103" priority="112">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78:F78">
-    <cfRule type="expression" dxfId="102" priority="111">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D79">
-    <cfRule type="expression" dxfId="101" priority="110">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D80">
-    <cfRule type="expression" dxfId="100" priority="109">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D81">
-    <cfRule type="expression" dxfId="99" priority="108">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79:F79">
-    <cfRule type="expression" dxfId="98" priority="107">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80:F80">
-    <cfRule type="expression" dxfId="97" priority="106">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81:F81">
-    <cfRule type="expression" dxfId="96" priority="105">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D82">
-    <cfRule type="expression" dxfId="95" priority="104">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82:F82">
-    <cfRule type="expression" dxfId="94" priority="103">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D83">
-    <cfRule type="expression" dxfId="93" priority="102">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83:F83">
-    <cfRule type="expression" dxfId="92" priority="101">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D84">
-    <cfRule type="expression" dxfId="91" priority="100">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84:F84">
-    <cfRule type="expression" dxfId="90" priority="99">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D85">
-    <cfRule type="expression" dxfId="89" priority="98">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85:F85">
-    <cfRule type="expression" dxfId="88" priority="97">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D86">
-    <cfRule type="expression" dxfId="87" priority="96">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86:F86">
-    <cfRule type="expression" dxfId="86" priority="95">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D87">
-    <cfRule type="expression" dxfId="85" priority="94">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D88">
-    <cfRule type="expression" dxfId="84" priority="93">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D89">
-    <cfRule type="expression" dxfId="83" priority="92">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87:F87">
-    <cfRule type="expression" dxfId="82" priority="91">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88:F88">
-    <cfRule type="expression" dxfId="81" priority="90">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89:F89">
-    <cfRule type="expression" dxfId="80" priority="89">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D90">
-    <cfRule type="expression" dxfId="79" priority="88">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90:F90">
-    <cfRule type="expression" dxfId="78" priority="87">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D91">
-    <cfRule type="expression" dxfId="77" priority="86">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91:F91">
-    <cfRule type="expression" dxfId="76" priority="85">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D92">
-    <cfRule type="expression" dxfId="75" priority="84">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92:F92">
-    <cfRule type="expression" dxfId="74" priority="83">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D93">
-    <cfRule type="expression" dxfId="73" priority="82">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93:F93">
-    <cfRule type="expression" dxfId="72" priority="81">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D94">
-    <cfRule type="expression" dxfId="71" priority="80">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94:F94">
-    <cfRule type="expression" dxfId="70" priority="79">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="expression" dxfId="69" priority="78">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
-    <cfRule type="expression" dxfId="68" priority="77">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41">
-    <cfRule type="expression" dxfId="67" priority="76">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39:F39">
-    <cfRule type="expression" dxfId="66" priority="75">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40:F40">
-    <cfRule type="expression" dxfId="65" priority="74">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41:F41">
-    <cfRule type="expression" dxfId="64" priority="73">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42">
-    <cfRule type="expression" dxfId="63" priority="72">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42:F42">
-    <cfRule type="expression" dxfId="62" priority="71">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="expression" dxfId="61" priority="62">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="expression" dxfId="60" priority="61">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="expression" dxfId="59" priority="60">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47:F47">
-    <cfRule type="expression" dxfId="58" priority="59">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48:F48">
-    <cfRule type="expression" dxfId="57" priority="58">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49:F49">
-    <cfRule type="expression" dxfId="56" priority="57">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="expression" dxfId="55" priority="56">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50:F50">
-    <cfRule type="expression" dxfId="54" priority="55">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="expression" dxfId="53" priority="54">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51:F51">
-    <cfRule type="expression" dxfId="52" priority="53">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="expression" dxfId="51" priority="52">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52:F52">
-    <cfRule type="expression" dxfId="50" priority="51">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="expression" dxfId="49" priority="50">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53:F53">
-    <cfRule type="expression" dxfId="48" priority="49">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="expression" dxfId="47" priority="48">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54:F54">
-    <cfRule type="expression" dxfId="46" priority="47">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="expression" dxfId="45" priority="46">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="expression" dxfId="44" priority="45">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
-    <cfRule type="expression" dxfId="43" priority="44">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55:F55">
-    <cfRule type="expression" dxfId="42" priority="43">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56:F56">
-    <cfRule type="expression" dxfId="41" priority="42">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57:F57">
-    <cfRule type="expression" dxfId="40" priority="41">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
-    <cfRule type="expression" dxfId="39" priority="40">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58:F58">
-    <cfRule type="expression" dxfId="38" priority="39">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59">
-    <cfRule type="expression" dxfId="37" priority="38">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59:F59">
-    <cfRule type="expression" dxfId="36" priority="37">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="expression" dxfId="35" priority="36">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60:F60">
-    <cfRule type="expression" dxfId="34" priority="35">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61">
-    <cfRule type="expression" dxfId="33" priority="34">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61:F61">
-    <cfRule type="expression" dxfId="32" priority="33">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62">
-    <cfRule type="expression" dxfId="31" priority="32">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E62:F62">
-    <cfRule type="expression" dxfId="30" priority="31">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63">
-    <cfRule type="expression" dxfId="29" priority="30">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="expression" dxfId="28" priority="29">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
-    <cfRule type="expression" dxfId="27" priority="28">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63:F63">
-    <cfRule type="expression" dxfId="26" priority="27">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64:F64">
-    <cfRule type="expression" dxfId="25" priority="26">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65:F65">
-    <cfRule type="expression" dxfId="24" priority="25">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
-    <cfRule type="expression" dxfId="23" priority="24">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66:F66">
-    <cfRule type="expression" dxfId="22" priority="23">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
-    <cfRule type="expression" dxfId="21" priority="22">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67:F67">
-    <cfRule type="expression" dxfId="20" priority="21">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D68">
-    <cfRule type="expression" dxfId="19" priority="20">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68:F68">
-    <cfRule type="expression" dxfId="18" priority="19">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D69">
-    <cfRule type="expression" dxfId="17" priority="18">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69:F69">
-    <cfRule type="expression" dxfId="16" priority="17">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D70">
-    <cfRule type="expression" dxfId="15" priority="16">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70:F70">
-    <cfRule type="expression" dxfId="14" priority="15">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="expression" dxfId="13" priority="14">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E43:F43">
-    <cfRule type="expression" dxfId="12" priority="13">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="expression" dxfId="11" priority="12">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44:F44">
-    <cfRule type="expression" dxfId="10" priority="11">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
-    <cfRule type="expression" dxfId="9" priority="10">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45:F45">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D46">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46:F46">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:F3">
     <cfRule type="expression" dxfId="4" priority="5">
       <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
+  <conditionalFormatting sqref="F13">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:F4">
+  <conditionalFormatting sqref="E11">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
+  <conditionalFormatting sqref="E12">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:F5">
+  <conditionalFormatting sqref="E13">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>IF($D$2&lt;10,TRUE,IF($D$2&gt;50,TRUE,FALSE))</formula>
     </cfRule>
@@ -5194,7 +6342,817 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F2648B-3EC4-49E8-B1F2-4E107318918C}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:M59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:13" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="117" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="119"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="120" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="121" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="122"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="123" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="124" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="124"/>
+      <c r="K4" s="124"/>
+      <c r="L4" s="124"/>
+      <c r="M4" s="125"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="123" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="124" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="124"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="124"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="124"/>
+      <c r="K5" s="124"/>
+      <c r="L5" s="124"/>
+      <c r="M5" s="125"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="123" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="124" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="124"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="124"/>
+      <c r="M6" s="125"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="123" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="124"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="124"/>
+      <c r="M7" s="125"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="123" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="124"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="124"/>
+      <c r="I8" s="124"/>
+      <c r="J8" s="124"/>
+      <c r="K8" s="124"/>
+      <c r="L8" s="124"/>
+      <c r="M8" s="125"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="123" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="124"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="124"/>
+      <c r="F9" s="124"/>
+      <c r="G9" s="124"/>
+      <c r="H9" s="124"/>
+      <c r="I9" s="124"/>
+      <c r="J9" s="124"/>
+      <c r="K9" s="124"/>
+      <c r="L9" s="124"/>
+      <c r="M9" s="125"/>
+    </row>
+    <row r="10" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="126"/>
+      <c r="K10" s="126"/>
+      <c r="L10" s="126"/>
+      <c r="M10" s="60"/>
+    </row>
+    <row r="14" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="127" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="129"/>
+      <c r="I15" s="127" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" s="128"/>
+      <c r="K15" s="128"/>
+      <c r="L15" s="128"/>
+      <c r="M15" s="129"/>
+    </row>
+    <row r="16" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="130" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="131"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="132"/>
+      <c r="I16" s="130" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16" s="131"/>
+      <c r="K16" s="131"/>
+      <c r="L16" s="131"/>
+      <c r="M16" s="132"/>
+    </row>
+    <row r="17" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="130" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="132"/>
+      <c r="I17" s="130" t="s">
+        <v>109</v>
+      </c>
+      <c r="J17" s="131"/>
+      <c r="K17" s="131"/>
+      <c r="L17" s="131"/>
+      <c r="M17" s="132"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="116" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="133"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="138"/>
+      <c r="I18" s="116" t="s">
+        <v>88</v>
+      </c>
+      <c r="J18" s="133"/>
+      <c r="K18" s="133"/>
+      <c r="L18" s="133"/>
+      <c r="M18" s="138"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="134" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="135"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="135"/>
+      <c r="F19" s="139"/>
+      <c r="I19" s="134" t="s">
+        <v>89</v>
+      </c>
+      <c r="J19" s="135"/>
+      <c r="K19" s="135"/>
+      <c r="L19" s="135"/>
+      <c r="M19" s="139"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="134" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="135"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="135"/>
+      <c r="F20" s="139"/>
+      <c r="I20" s="134" t="s">
+        <v>90</v>
+      </c>
+      <c r="J20" s="135"/>
+      <c r="K20" s="135"/>
+      <c r="L20" s="135"/>
+      <c r="M20" s="139"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="134" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="135"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="135"/>
+      <c r="F21" s="139"/>
+      <c r="I21" s="134" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="135"/>
+      <c r="K21" s="135"/>
+      <c r="L21" s="135"/>
+      <c r="M21" s="139"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="134" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="135"/>
+      <c r="D22" s="135"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="139"/>
+      <c r="I22" s="134" t="s">
+        <v>91</v>
+      </c>
+      <c r="J22" s="135"/>
+      <c r="K22" s="135"/>
+      <c r="L22" s="135"/>
+      <c r="M22" s="139"/>
+    </row>
+    <row r="23" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="136" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="137"/>
+      <c r="D23" s="137"/>
+      <c r="E23" s="137"/>
+      <c r="F23" s="140"/>
+      <c r="I23" s="136" t="s">
+        <v>92</v>
+      </c>
+      <c r="J23" s="137"/>
+      <c r="K23" s="137"/>
+      <c r="L23" s="137"/>
+      <c r="M23" s="140"/>
+    </row>
+    <row r="26" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="127" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="128"/>
+      <c r="D27" s="128"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="129"/>
+      <c r="I27" s="127" t="s">
+        <v>76</v>
+      </c>
+      <c r="J27" s="128"/>
+      <c r="K27" s="128"/>
+      <c r="L27" s="128"/>
+      <c r="M27" s="129"/>
+    </row>
+    <row r="28" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="130" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="131"/>
+      <c r="D28" s="131"/>
+      <c r="E28" s="131"/>
+      <c r="F28" s="132"/>
+      <c r="I28" s="130" t="s">
+        <v>95</v>
+      </c>
+      <c r="J28" s="131"/>
+      <c r="K28" s="131"/>
+      <c r="L28" s="131"/>
+      <c r="M28" s="132"/>
+    </row>
+    <row r="29" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="130" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="131"/>
+      <c r="D29" s="131"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="132"/>
+      <c r="I29" s="130" t="s">
+        <v>111</v>
+      </c>
+      <c r="J29" s="131"/>
+      <c r="K29" s="131"/>
+      <c r="L29" s="131"/>
+      <c r="M29" s="132"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="116" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="133"/>
+      <c r="D30" s="133"/>
+      <c r="E30" s="133"/>
+      <c r="F30" s="138"/>
+      <c r="I30" s="116" t="s">
+        <v>88</v>
+      </c>
+      <c r="J30" s="133"/>
+      <c r="K30" s="133"/>
+      <c r="L30" s="133"/>
+      <c r="M30" s="138"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="134" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="135"/>
+      <c r="D31" s="135"/>
+      <c r="E31" s="135"/>
+      <c r="F31" s="139"/>
+      <c r="I31" s="134" t="s">
+        <v>89</v>
+      </c>
+      <c r="J31" s="135"/>
+      <c r="K31" s="135"/>
+      <c r="L31" s="135"/>
+      <c r="M31" s="139"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="134" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="135"/>
+      <c r="D32" s="135"/>
+      <c r="E32" s="135"/>
+      <c r="F32" s="139"/>
+      <c r="I32" s="134" t="s">
+        <v>90</v>
+      </c>
+      <c r="J32" s="135"/>
+      <c r="K32" s="135"/>
+      <c r="L32" s="135"/>
+      <c r="M32" s="139"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="134" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="135"/>
+      <c r="D33" s="135"/>
+      <c r="E33" s="135"/>
+      <c r="F33" s="139"/>
+      <c r="I33" s="134" t="s">
+        <v>3</v>
+      </c>
+      <c r="J33" s="135"/>
+      <c r="K33" s="135"/>
+      <c r="L33" s="135"/>
+      <c r="M33" s="139"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="134" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="135"/>
+      <c r="D34" s="135"/>
+      <c r="E34" s="135"/>
+      <c r="F34" s="139"/>
+      <c r="I34" s="134" t="s">
+        <v>91</v>
+      </c>
+      <c r="J34" s="135"/>
+      <c r="K34" s="135"/>
+      <c r="L34" s="135"/>
+      <c r="M34" s="139"/>
+    </row>
+    <row r="35" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="136" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="137"/>
+      <c r="D35" s="137"/>
+      <c r="E35" s="137"/>
+      <c r="F35" s="140"/>
+      <c r="I35" s="136" t="s">
+        <v>92</v>
+      </c>
+      <c r="J35" s="137"/>
+      <c r="K35" s="137"/>
+      <c r="L35" s="137"/>
+      <c r="M35" s="140"/>
+    </row>
+    <row r="38" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="127" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="128"/>
+      <c r="D39" s="128"/>
+      <c r="E39" s="128"/>
+      <c r="F39" s="129"/>
+      <c r="I39" s="127" t="s">
+        <v>83</v>
+      </c>
+      <c r="J39" s="128"/>
+      <c r="K39" s="128"/>
+      <c r="L39" s="128"/>
+      <c r="M39" s="129"/>
+    </row>
+    <row r="40" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="130" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="131"/>
+      <c r="D40" s="131"/>
+      <c r="E40" s="131"/>
+      <c r="F40" s="132"/>
+      <c r="I40" s="130" t="s">
+        <v>95</v>
+      </c>
+      <c r="J40" s="131"/>
+      <c r="K40" s="131"/>
+      <c r="L40" s="131"/>
+      <c r="M40" s="132"/>
+    </row>
+    <row r="41" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="130" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="131"/>
+      <c r="D41" s="131"/>
+      <c r="E41" s="131"/>
+      <c r="F41" s="132"/>
+      <c r="I41" s="130" t="s">
+        <v>113</v>
+      </c>
+      <c r="J41" s="131"/>
+      <c r="K41" s="131"/>
+      <c r="L41" s="131"/>
+      <c r="M41" s="132"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42" s="116" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="133"/>
+      <c r="D42" s="133"/>
+      <c r="E42" s="133"/>
+      <c r="F42" s="138"/>
+      <c r="I42" s="116" t="s">
+        <v>88</v>
+      </c>
+      <c r="J42" s="133"/>
+      <c r="K42" s="133"/>
+      <c r="L42" s="133"/>
+      <c r="M42" s="138"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B43" s="134" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="135"/>
+      <c r="D43" s="135"/>
+      <c r="E43" s="135"/>
+      <c r="F43" s="139"/>
+      <c r="I43" s="134" t="s">
+        <v>89</v>
+      </c>
+      <c r="J43" s="135"/>
+      <c r="K43" s="135"/>
+      <c r="L43" s="135"/>
+      <c r="M43" s="139"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44" s="134" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="135"/>
+      <c r="D44" s="135"/>
+      <c r="E44" s="135"/>
+      <c r="F44" s="139"/>
+      <c r="I44" s="134" t="s">
+        <v>90</v>
+      </c>
+      <c r="J44" s="135"/>
+      <c r="K44" s="135"/>
+      <c r="L44" s="135"/>
+      <c r="M44" s="139"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="134" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="135"/>
+      <c r="D45" s="135"/>
+      <c r="E45" s="135"/>
+      <c r="F45" s="139"/>
+      <c r="I45" s="134" t="s">
+        <v>3</v>
+      </c>
+      <c r="J45" s="135"/>
+      <c r="K45" s="135"/>
+      <c r="L45" s="135"/>
+      <c r="M45" s="139"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="134" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="135"/>
+      <c r="D46" s="135"/>
+      <c r="E46" s="135"/>
+      <c r="F46" s="139"/>
+      <c r="I46" s="134" t="s">
+        <v>91</v>
+      </c>
+      <c r="J46" s="135"/>
+      <c r="K46" s="135"/>
+      <c r="L46" s="135"/>
+      <c r="M46" s="139"/>
+    </row>
+    <row r="47" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="136" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="137"/>
+      <c r="D47" s="137"/>
+      <c r="E47" s="137"/>
+      <c r="F47" s="140"/>
+      <c r="I47" s="136" t="s">
+        <v>92</v>
+      </c>
+      <c r="J47" s="137"/>
+      <c r="K47" s="137"/>
+      <c r="L47" s="137"/>
+      <c r="M47" s="140"/>
+    </row>
+    <row r="50" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="127" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" s="128"/>
+      <c r="D51" s="128"/>
+      <c r="E51" s="128"/>
+      <c r="F51" s="129"/>
+    </row>
+    <row r="52" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="130" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="131"/>
+      <c r="D52" s="131"/>
+      <c r="E52" s="131"/>
+      <c r="F52" s="132"/>
+    </row>
+    <row r="53" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="130" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" s="131"/>
+      <c r="D53" s="131"/>
+      <c r="E53" s="131"/>
+      <c r="F53" s="132"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="116" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" s="133"/>
+      <c r="D54" s="133"/>
+      <c r="E54" s="133"/>
+      <c r="F54" s="138"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="134" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" s="135"/>
+      <c r="D55" s="135"/>
+      <c r="E55" s="135"/>
+      <c r="F55" s="139"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="134" t="s">
+        <v>90</v>
+      </c>
+      <c r="C56" s="135"/>
+      <c r="D56" s="135"/>
+      <c r="E56" s="135"/>
+      <c r="F56" s="139"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="134" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="135"/>
+      <c r="D57" s="135"/>
+      <c r="E57" s="135"/>
+      <c r="F57" s="139"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="134" t="s">
+        <v>91</v>
+      </c>
+      <c r="C58" s="135"/>
+      <c r="D58" s="135"/>
+      <c r="E58" s="135"/>
+      <c r="F58" s="139"/>
+    </row>
+    <row r="59" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="136" t="s">
+        <v>92</v>
+      </c>
+      <c r="C59" s="137"/>
+      <c r="D59" s="137"/>
+      <c r="E59" s="137"/>
+      <c r="F59" s="140"/>
+    </row>
+  </sheetData>
+  <mergeCells count="106">
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="I39:M39"/>
+    <mergeCell ref="I40:M40"/>
+    <mergeCell ref="I41:M41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="I27:M27"/>
+    <mergeCell ref="I28:M28"/>
+    <mergeCell ref="I29:M29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="I17:M17"/>
+    <mergeCell ref="I18:J18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="75" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E39749BD52AF23479DD5AF25DB4F56EF" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="45cf4642010c53f1c946689d4b1cdb6e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4c8e7f9b-eac5-4ae2-b2ae-e40caed85104" xmlns:ns4="cc16eacc-26c8-4df3-9d75-d6f43556ca3d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2698faf2b9548e1178d17a0e23dd2c9c" ns3:_="" ns4:_="">
     <xsd:import namespace="4c8e7f9b-eac5-4ae2-b2ae-e40caed85104"/>
@@ -5417,22 +7375,21 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{158388FD-FCB9-4D40-8807-AFB22AE8C172}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF168E1E-40C9-4746-B4C5-F49E190D7F58}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5451,19 +7408,11 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46E792D2-13D9-445F-AE7B-CF179A33399C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{158388FD-FCB9-4D40-8807-AFB22AE8C172}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>